--- a/data/pca/factorExposure/factorExposure_2016-03-11.xlsx
+++ b/data/pca/factorExposure/factorExposure_2016-03-11.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,15 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +714,88 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.01055898960704076</v>
+        <v>0.01545972531881864</v>
       </c>
       <c r="C2">
-        <v>-0.05690295220729449</v>
+        <v>0.03965658435361524</v>
       </c>
       <c r="D2">
-        <v>-0.03078445861596717</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.07346011075191836</v>
+      </c>
+      <c r="E2">
+        <v>-0.1271193321201493</v>
+      </c>
+      <c r="F2">
+        <v>-0.03946650964272524</v>
+      </c>
+      <c r="G2">
+        <v>0.004189338831248013</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>-0.04126013649714332</v>
+        <v>0.02561913547545088</v>
       </c>
       <c r="C3">
-        <v>-0.1257238844169829</v>
+        <v>0.0689819883001988</v>
       </c>
       <c r="D3">
-        <v>-0.05002384513286148</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>0.07425112124953581</v>
+      </c>
+      <c r="E3">
+        <v>-0.08205233484360933</v>
+      </c>
+      <c r="F3">
+        <v>0.0595106619630155</v>
+      </c>
+      <c r="G3">
+        <v>0.08773048361093728</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.06309398230872218</v>
+        <v>0.0625914621491494</v>
       </c>
       <c r="C4">
-        <v>-0.06525738692359703</v>
+        <v>0.06421535258590894</v>
       </c>
       <c r="D4">
-        <v>-0.01701891413536695</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.06610058503427051</v>
+      </c>
+      <c r="E4">
+        <v>-0.1190050341336332</v>
+      </c>
+      <c r="F4">
+        <v>0.02182741840398704</v>
+      </c>
+      <c r="G4">
+        <v>-0.03610148942314969</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +806,272 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>-0.04223397939975451</v>
+        <v>0.03904916357417964</v>
       </c>
       <c r="C6">
-        <v>-0.03608302099569404</v>
+        <v>0.02666531390319704</v>
       </c>
       <c r="D6">
-        <v>-0.01577221251086849</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.07252449205466899</v>
+      </c>
+      <c r="E6">
+        <v>-0.1074459186460437</v>
+      </c>
+      <c r="F6">
+        <v>0.02383014283597166</v>
+      </c>
+      <c r="G6">
+        <v>0.003144777811066194</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>-0.02916124844798527</v>
+        <v>0.02232449199522969</v>
       </c>
       <c r="C7">
-        <v>-0.03933257898720017</v>
+        <v>0.03667474805008247</v>
       </c>
       <c r="D7">
-        <v>0.003392429911925515</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.05394822079665603</v>
+      </c>
+      <c r="E7">
+        <v>-0.09753225367043668</v>
+      </c>
+      <c r="F7">
+        <v>0.002109780079749906</v>
+      </c>
+      <c r="G7">
+        <v>-0.0799049447779471</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>-0.009896510588385156</v>
+        <v>0.007841412547397314</v>
       </c>
       <c r="C8">
-        <v>-0.04191828211556912</v>
+        <v>0.03565085516284645</v>
       </c>
       <c r="D8">
-        <v>-0.02550236099138433</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.04686475484188333</v>
+      </c>
+      <c r="E8">
+        <v>-0.07191735936185273</v>
+      </c>
+      <c r="F8">
+        <v>0.01529644220106582</v>
+      </c>
+      <c r="G8">
+        <v>0.004067632942301781</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>-0.0387367261104114</v>
+        <v>0.04243949562902133</v>
       </c>
       <c r="C9">
-        <v>-0.04660690917664374</v>
+        <v>0.04972247940371981</v>
       </c>
       <c r="D9">
-        <v>-0.01586887205829203</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.05538947043322982</v>
+      </c>
+      <c r="E9">
+        <v>-0.09976491527565323</v>
+      </c>
+      <c r="F9">
+        <v>0.005089028463990612</v>
+      </c>
+      <c r="G9">
+        <v>-0.04610941049377574</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>-0.06991458598031521</v>
+        <v>0.09819042715871924</v>
       </c>
       <c r="C10">
-        <v>0.187025791223453</v>
+        <v>-0.2006959450832854</v>
       </c>
       <c r="D10">
-        <v>-0.0005141058384417936</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-0.007001846292186911</v>
+      </c>
+      <c r="E10">
+        <v>-0.04616485851096529</v>
+      </c>
+      <c r="F10">
+        <v>0.006787790305390458</v>
+      </c>
+      <c r="G10">
+        <v>-0.02730754251898082</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>-0.04443551532886778</v>
+        <v>0.0384090635229604</v>
       </c>
       <c r="C11">
-        <v>-0.04991502223476142</v>
+        <v>0.04702059011610246</v>
       </c>
       <c r="D11">
-        <v>-0.01580334465662008</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0.04044874022644925</v>
+      </c>
+      <c r="E11">
+        <v>-0.04778282223611618</v>
+      </c>
+      <c r="F11">
+        <v>0.007127709622993715</v>
+      </c>
+      <c r="G11">
+        <v>-0.05758507311530899</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>-0.04674628017561223</v>
+        <v>0.04037537700858555</v>
       </c>
       <c r="C12">
-        <v>-0.04532822131443544</v>
+        <v>0.04488068978741123</v>
       </c>
       <c r="D12">
-        <v>0.002435414787902433</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0.03405557339163151</v>
+      </c>
+      <c r="E12">
+        <v>-0.05788023033759285</v>
+      </c>
+      <c r="F12">
+        <v>0.004609517853092651</v>
+      </c>
+      <c r="G12">
+        <v>-0.05121288769166175</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>-0.01625793076257359</v>
+        <v>0.01562817042344793</v>
       </c>
       <c r="C13">
-        <v>-0.05374627600771742</v>
+        <v>0.04186845372000331</v>
       </c>
       <c r="D13">
-        <v>-0.00213754483783144</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0.06283752843374096</v>
+      </c>
+      <c r="E13">
+        <v>-0.1353014952083046</v>
+      </c>
+      <c r="F13">
+        <v>0.01407683549185648</v>
+      </c>
+      <c r="G13">
+        <v>-0.04774858034568305</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>-0.01156328472244498</v>
+        <v>0.007376428534322551</v>
       </c>
       <c r="C14">
-        <v>-0.03454227240450687</v>
+        <v>0.02945735503115505</v>
       </c>
       <c r="D14">
-        <v>0.003793278071095726</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.03902228391051166</v>
+      </c>
+      <c r="E14">
+        <v>-0.09087613102141344</v>
+      </c>
+      <c r="F14">
+        <v>-0.01548588871578406</v>
+      </c>
+      <c r="G14">
+        <v>-0.05223070579883465</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>0.0001670276839863814</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>0.006582804020084691</v>
       </c>
       <c r="D15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>0.01062953061400993</v>
+      </c>
+      <c r="E15">
+        <v>-0.01106270430925991</v>
+      </c>
+      <c r="F15">
+        <v>-0.001259348183963734</v>
+      </c>
+      <c r="G15">
+        <v>-0.002057196164405407</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>-0.04209005522409033</v>
+        <v>0.03668598108084168</v>
       </c>
       <c r="C16">
-        <v>-0.04719078950607292</v>
+        <v>0.04400094855483793</v>
       </c>
       <c r="D16">
-        <v>-0.0009562300977301445</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.03437444577151864</v>
+      </c>
+      <c r="E16">
+        <v>-0.06208637662032756</v>
+      </c>
+      <c r="F16">
+        <v>-0.008287393990958705</v>
+      </c>
+      <c r="G16">
+        <v>-0.04719056962412504</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1082,19 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1105,203 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>-0.02632298872900785</v>
+        <v>0.01949105894223669</v>
       </c>
       <c r="C19">
-        <v>-0.06000018152969953</v>
+        <v>0.04432703054887369</v>
       </c>
       <c r="D19">
-        <v>-0.05836181217215222</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>0.09303284077110315</v>
+      </c>
+      <c r="E19">
+        <v>-0.1296480402305079</v>
+      </c>
+      <c r="F19">
+        <v>-0.01747566733356172</v>
+      </c>
+      <c r="G19">
+        <v>-2.832008450654363e-05</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>-0.02106772465791448</v>
+        <v>0.01709044047256879</v>
       </c>
       <c r="C20">
-        <v>-0.04805210476249692</v>
+        <v>0.03908081672337802</v>
       </c>
       <c r="D20">
-        <v>-0.0003272384836634826</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0.04629799780855642</v>
+      </c>
+      <c r="E20">
+        <v>-0.1059431676772522</v>
+      </c>
+      <c r="F20">
+        <v>-0.001025065729424827</v>
+      </c>
+      <c r="G20">
+        <v>-0.02803569990429925</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>-0.01737852517417787</v>
+        <v>0.01494013545369534</v>
       </c>
       <c r="C21">
-        <v>-0.05495822554538343</v>
+        <v>0.04304995491452736</v>
       </c>
       <c r="D21">
-        <v>-0.01911102114963435</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0.07278576971680538</v>
+      </c>
+      <c r="E21">
+        <v>-0.158626448130027</v>
+      </c>
+      <c r="F21">
+        <v>-0.01546361395337868</v>
+      </c>
+      <c r="G21">
+        <v>-0.0633030872298425</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>0.0006376883626399025</v>
+        <v>0.004832625023768454</v>
       </c>
       <c r="C22">
-        <v>-0.01314375064608505</v>
+        <v>0.0294745070654424</v>
       </c>
       <c r="D22">
-        <v>-0.02383527241287572</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0.06286638740076615</v>
+      </c>
+      <c r="E22">
+        <v>-0.07612750905227916</v>
+      </c>
+      <c r="F22">
+        <v>0.0600613337824067</v>
+      </c>
+      <c r="G22">
+        <v>0.03105198827994201</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>0.0006389714894962374</v>
+        <v>0.004959791609330118</v>
       </c>
       <c r="C23">
-        <v>-0.01313775420527862</v>
+        <v>0.02944024381603079</v>
       </c>
       <c r="D23">
-        <v>-0.02376786468557773</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0.06209310171627558</v>
+      </c>
+      <c r="E23">
+        <v>-0.07627505303366214</v>
+      </c>
+      <c r="F23">
+        <v>0.06008807468846841</v>
+      </c>
+      <c r="G23">
+        <v>0.03066163016926797</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>-0.0392984544363741</v>
+        <v>0.03774301256688895</v>
       </c>
       <c r="C24">
-        <v>-0.0482698769336281</v>
+        <v>0.05221534308883004</v>
       </c>
       <c r="D24">
-        <v>-0.007280073429768509</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0.03623281758843955</v>
+      </c>
+      <c r="E24">
+        <v>-0.06726317837629747</v>
+      </c>
+      <c r="F24">
+        <v>-0.004385359761378844</v>
+      </c>
+      <c r="G24">
+        <v>-0.0611748582894285</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>-0.05006732386955169</v>
+        <v>0.044840264560057</v>
       </c>
       <c r="C25">
-        <v>-0.05749852681196681</v>
+        <v>0.05499288341842577</v>
       </c>
       <c r="D25">
-        <v>-6.181266847960011e-05</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>0.03308042320629778</v>
+      </c>
+      <c r="E25">
+        <v>-0.05940497023426585</v>
+      </c>
+      <c r="F25">
+        <v>0.008842893203732598</v>
+      </c>
+      <c r="G25">
+        <v>-0.0686927892783265</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>-0.02005994818111265</v>
+        <v>0.01785467059683688</v>
       </c>
       <c r="C26">
-        <v>-0.01496972749583203</v>
+        <v>0.01622047557638516</v>
       </c>
       <c r="D26">
-        <v>-0.007953279718862675</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0.03600513175241878</v>
+      </c>
+      <c r="E26">
+        <v>-0.0721136337166078</v>
+      </c>
+      <c r="F26">
+        <v>-0.01395733616903606</v>
+      </c>
+      <c r="G26">
+        <v>-0.02496936725250797</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,136 +1312,226 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>-0.08907957577976645</v>
+        <v>0.135998494153519</v>
       </c>
       <c r="C28">
-        <v>0.2594523335059296</v>
+        <v>-0.2616290683551439</v>
       </c>
       <c r="D28">
-        <v>0.01045081143138384</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>-0.0256764964888986</v>
+      </c>
+      <c r="E28">
+        <v>-0.06555935641423725</v>
+      </c>
+      <c r="F28">
+        <v>0.006707790819716056</v>
+      </c>
+      <c r="G28">
+        <v>-0.05702670253605589</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>-0.01002578671292298</v>
+        <v>0.007777264139594607</v>
       </c>
       <c r="C29">
-        <v>-0.03132760609115445</v>
+        <v>0.02793601386497737</v>
       </c>
       <c r="D29">
-        <v>0.009310716090484545</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0.03161438850626801</v>
+      </c>
+      <c r="E29">
+        <v>-0.08680857382630186</v>
+      </c>
+      <c r="F29">
+        <v>-0.005555276454631892</v>
+      </c>
+      <c r="G29">
+        <v>-0.05461314560294393</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>-0.04730735310804618</v>
+        <v>0.04621980683837958</v>
       </c>
       <c r="C30">
-        <v>-0.05063389910619798</v>
+        <v>0.05682994682396338</v>
       </c>
       <c r="D30">
-        <v>-0.07505498527817524</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0.1186806458466183</v>
+      </c>
+      <c r="E30">
+        <v>-0.1109944823478191</v>
+      </c>
+      <c r="F30">
+        <v>-0.004522773716639687</v>
+      </c>
+      <c r="G30">
+        <v>0.003423737125548964</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>-0.06406910475403134</v>
+        <v>0.06184409540800572</v>
       </c>
       <c r="C31">
-        <v>-0.04456981020683418</v>
+        <v>0.05969335210863411</v>
       </c>
       <c r="D31">
-        <v>0.04629640504911345</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.004486275365284823</v>
+      </c>
+      <c r="E31">
+        <v>-0.0903171901387938</v>
+      </c>
+      <c r="F31">
+        <v>0.02972732781275439</v>
+      </c>
+      <c r="G31">
+        <v>-0.0339570968723591</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>-0.007096303564941079</v>
+        <v>0.0112832282192662</v>
       </c>
       <c r="C32">
-        <v>-0.03831551938706152</v>
+        <v>0.03388824307045798</v>
       </c>
       <c r="D32">
-        <v>-0.05659809824001149</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>0.06686764403393596</v>
+      </c>
+      <c r="E32">
+        <v>-0.07892295131487345</v>
+      </c>
+      <c r="F32">
+        <v>-0.01736230384506889</v>
+      </c>
+      <c r="G32">
+        <v>-0.0564856998425714</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>-0.03563503202321361</v>
+        <v>0.02917723619857819</v>
       </c>
       <c r="C33">
-        <v>-0.05826652573405754</v>
+        <v>0.05193973744291643</v>
       </c>
       <c r="D33">
-        <v>-0.03711503013205489</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>0.08472085079157969</v>
+      </c>
+      <c r="E33">
+        <v>-0.1200636790740911</v>
+      </c>
+      <c r="F33">
+        <v>0.01097512508836506</v>
+      </c>
+      <c r="G33">
+        <v>-0.05648667604865652</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>-0.04534041355607432</v>
+        <v>0.04095499062739667</v>
       </c>
       <c r="C34">
-        <v>-0.06223570896486532</v>
+        <v>0.06172707686473109</v>
       </c>
       <c r="D34">
-        <v>-0.02182556860908618</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0.04353393118588434</v>
+      </c>
+      <c r="E34">
+        <v>-0.04762916376161949</v>
+      </c>
+      <c r="F34">
+        <v>-0.003713517301676773</v>
+      </c>
+      <c r="G34">
+        <v>-0.06994164534665001</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>-1.483823324840658e-05</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>-8.906318572822365e-05</v>
       </c>
       <c r="D35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>3.173269030332321e-05</v>
+      </c>
+      <c r="E35">
+        <v>0.0001453428863522368</v>
+      </c>
+      <c r="F35">
+        <v>-8.737468261288166e-05</v>
+      </c>
+      <c r="G35">
+        <v>5.801404270951981e-05</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>-0.01906046416055195</v>
+        <v>0.01674813099550922</v>
       </c>
       <c r="C36">
-        <v>-0.01566978680778463</v>
+        <v>0.01265503016737742</v>
       </c>
       <c r="D36">
-        <v>0.002144362646520533</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>0.03466884355903054</v>
+      </c>
+      <c r="E36">
+        <v>-0.08211190364113634</v>
+      </c>
+      <c r="F36">
+        <v>-7.339009143649161e-06</v>
+      </c>
+      <c r="G36">
+        <v>-0.0412180732225384</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1542,111 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>-0.03098209039685352</v>
+        <v>0.02420357557249935</v>
       </c>
       <c r="C38">
-        <v>-0.03178278045451699</v>
+        <v>0.02448310843695536</v>
       </c>
       <c r="D38">
-        <v>0.01525930092153393</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>0.02888929819094269</v>
+      </c>
+      <c r="E38">
+        <v>-0.07326159902260608</v>
+      </c>
+      <c r="F38">
+        <v>0.00145620984627125</v>
+      </c>
+      <c r="G38">
+        <v>0.0002331696043889941</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>-0.05004776259454422</v>
+        <v>0.04357505194568681</v>
       </c>
       <c r="C39">
-        <v>-0.05858098149979543</v>
+        <v>0.06096512401175201</v>
       </c>
       <c r="D39">
-        <v>-0.02032655465476488</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>0.06465281942217374</v>
+      </c>
+      <c r="E39">
+        <v>-0.08127093340901513</v>
+      </c>
+      <c r="F39">
+        <v>-0.02176096769117422</v>
+      </c>
+      <c r="G39">
+        <v>-0.05037125871243248</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>-0.01270852597202966</v>
+        <v>0.0152953804669123</v>
       </c>
       <c r="C40">
-        <v>-0.05386506559674912</v>
+        <v>0.03943871116319497</v>
       </c>
       <c r="D40">
-        <v>0.002390803534822666</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>0.04000768662625762</v>
+      </c>
+      <c r="E40">
+        <v>-0.1183649626051801</v>
+      </c>
+      <c r="F40">
+        <v>0.026910205198962</v>
+      </c>
+      <c r="G40">
+        <v>-0.04813899642464516</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>-0.02464977241126047</v>
+        <v>0.02101149940334221</v>
       </c>
       <c r="C41">
-        <v>-0.01395810099099414</v>
+        <v>0.00972480135925311</v>
       </c>
       <c r="D41">
-        <v>0.004818248609174004</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>0.02296414913551083</v>
+      </c>
+      <c r="E41">
+        <v>-0.07927172601176914</v>
+      </c>
+      <c r="F41">
+        <v>-0.0009120159903916713</v>
+      </c>
+      <c r="G41">
+        <v>-0.02866044994159305</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1657,65 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>-0.04698211845786146</v>
+        <v>0.03279450195384529</v>
       </c>
       <c r="C43">
-        <v>-0.03360023848569522</v>
+        <v>0.02406896560262519</v>
       </c>
       <c r="D43">
-        <v>-0.006834094355888449</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>0.05095194474111236</v>
+      </c>
+      <c r="E43">
+        <v>-0.09364926633847477</v>
+      </c>
+      <c r="F43">
+        <v>0.01993845250857064</v>
+      </c>
+      <c r="G43">
+        <v>-0.04773068196591568</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>-0.01936166932744955</v>
+        <v>0.01987772632109642</v>
       </c>
       <c r="C44">
-        <v>-0.06889921869532177</v>
+        <v>0.04843906732362986</v>
       </c>
       <c r="D44">
-        <v>0.01086671076451432</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>0.04079272333616429</v>
+      </c>
+      <c r="E44">
+        <v>-0.1133527067523824</v>
+      </c>
+      <c r="F44">
+        <v>-0.01270971792566223</v>
+      </c>
+      <c r="G44">
+        <v>-0.03103957196134638</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1726,88 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>-0.01385634991864563</v>
+        <v>0.01274070331516138</v>
       </c>
       <c r="C46">
-        <v>-0.02617817659240381</v>
+        <v>0.02885162246223614</v>
       </c>
       <c r="D46">
-        <v>0.01700497487632669</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>0.02650126808992898</v>
+      </c>
+      <c r="E46">
+        <v>-0.09601521921060947</v>
+      </c>
+      <c r="F46">
+        <v>-0.01655946184714299</v>
+      </c>
+      <c r="G46">
+        <v>-0.06919439101972071</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>-0.09230341906842102</v>
+        <v>0.09356967848264636</v>
       </c>
       <c r="C47">
-        <v>-0.06626590022082778</v>
+        <v>0.0790204744505234</v>
       </c>
       <c r="D47">
-        <v>0.0535539158265315</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.01782349897621046</v>
+      </c>
+      <c r="E47">
+        <v>-0.07931120675381907</v>
+      </c>
+      <c r="F47">
+        <v>0.02107532809095813</v>
+      </c>
+      <c r="G47">
+        <v>-0.06459899068653736</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>-0.02073551824034996</v>
+        <v>0.01925054293454512</v>
       </c>
       <c r="C48">
-        <v>-0.01227348620334934</v>
+        <v>0.01440358010768982</v>
       </c>
       <c r="D48">
-        <v>0.02103438063396127</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>0.02131328743862796</v>
+      </c>
+      <c r="E48">
+        <v>-0.09902438643375644</v>
+      </c>
+      <c r="F48">
+        <v>-0.007302691260789585</v>
+      </c>
+      <c r="G48">
+        <v>-0.04874365302814675</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1818,65 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>-0.08581563806255027</v>
+        <v>0.07364272928463177</v>
       </c>
       <c r="C50">
-        <v>-0.08205124984018677</v>
+        <v>0.07377873553734791</v>
       </c>
       <c r="D50">
-        <v>0.05384840886946989</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>0.0009413526889378737</v>
+      </c>
+      <c r="E50">
+        <v>-0.08973682322890025</v>
+      </c>
+      <c r="F50">
+        <v>0.05623171191202262</v>
+      </c>
+      <c r="G50">
+        <v>-0.03226130636322505</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>-0.01496796858361463</v>
+        <v>0.0112234665020006</v>
       </c>
       <c r="C51">
-        <v>-0.04937794611762478</v>
+        <v>0.03131509729663753</v>
       </c>
       <c r="D51">
-        <v>-0.04608412102240209</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>0.06947678095905142</v>
+      </c>
+      <c r="E51">
+        <v>-0.08632156993951233</v>
+      </c>
+      <c r="F51">
+        <v>-0.01426895381848114</v>
+      </c>
+      <c r="G51">
+        <v>-0.02595067425691717</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,66 +1887,111 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>-0.08483026441493202</v>
+        <v>0.09928901621962137</v>
       </c>
       <c r="C53">
-        <v>-0.07878508053528077</v>
+        <v>0.08444950256343577</v>
       </c>
       <c r="D53">
-        <v>0.06936254547368119</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.05549009025574207</v>
+      </c>
+      <c r="E53">
+        <v>-0.08803151243289858</v>
+      </c>
+      <c r="F53">
+        <v>0.0176215739250883</v>
+      </c>
+      <c r="G53">
+        <v>-0.06285362311720807</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>-0.03829975361012954</v>
+        <v>0.03140003711552019</v>
       </c>
       <c r="C54">
-        <v>-0.03187400269641352</v>
+        <v>0.03039758092294781</v>
       </c>
       <c r="D54">
-        <v>-0.002550446020343853</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>0.03988604501188677</v>
+      </c>
+      <c r="E54">
+        <v>-0.09015992888276517</v>
+      </c>
+      <c r="F54">
+        <v>-0.007450042410078268</v>
+      </c>
+      <c r="G54">
+        <v>-0.05788426906836185</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>-0.08268258777792664</v>
+        <v>0.09175041507960664</v>
       </c>
       <c r="C55">
-        <v>-0.05234340552187997</v>
+        <v>0.06597021180997081</v>
       </c>
       <c r="D55">
-        <v>0.06823293081597312</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.05379775427467688</v>
+      </c>
+      <c r="E55">
+        <v>-0.05792610532120777</v>
+      </c>
+      <c r="F55">
+        <v>0.02783016295481383</v>
+      </c>
+      <c r="G55">
+        <v>-0.02845433642206691</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>-0.1539214447682649</v>
+        <v>0.156494507665105</v>
       </c>
       <c r="C56">
-        <v>-0.08094018556539244</v>
+        <v>0.09899068326454981</v>
       </c>
       <c r="D56">
-        <v>0.06984481788332626</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.05734386329138605</v>
+      </c>
+      <c r="E56">
+        <v>-0.03639738808708642</v>
+      </c>
+      <c r="F56">
+        <v>0.01350765137761565</v>
+      </c>
+      <c r="G56">
+        <v>-0.04106665841396249</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,66 +2002,111 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>-0.05131440329134596</v>
+        <v>0.03726995222536313</v>
       </c>
       <c r="C58">
-        <v>-0.002107230996718419</v>
+        <v>0.01393432728478177</v>
       </c>
       <c r="D58">
-        <v>-0.1546923914127226</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>0.2616087386554937</v>
+      </c>
+      <c r="E58">
+        <v>-0.3534808810714398</v>
+      </c>
+      <c r="F58">
+        <v>0.173595800211767</v>
+      </c>
+      <c r="G58">
+        <v>0.6191313999640997</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>-0.1222943391510671</v>
+        <v>0.1401495052523091</v>
       </c>
       <c r="C59">
-        <v>0.2096679196141482</v>
+        <v>-0.1945317653476836</v>
       </c>
       <c r="D59">
-        <v>-0.02426190400024171</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.0324394649037492</v>
+      </c>
+      <c r="E59">
+        <v>-0.03530401225030844</v>
+      </c>
+      <c r="F59">
+        <v>-0.02457137119778193</v>
+      </c>
+      <c r="G59">
+        <v>0.01463142842912338</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>-0.2942375063111864</v>
+        <v>0.2670654778013007</v>
       </c>
       <c r="C60">
-        <v>-0.1007478395395993</v>
+        <v>0.09486365212611249</v>
       </c>
       <c r="D60">
-        <v>-0.2740272743731464</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>0.246307273225244</v>
+      </c>
+      <c r="E60">
+        <v>0.2434452671405396</v>
+      </c>
+      <c r="F60">
+        <v>0.0944576158789853</v>
+      </c>
+      <c r="G60">
+        <v>-0.01455296895599422</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>-0.04854552432401362</v>
+        <v>0.04486236643867875</v>
       </c>
       <c r="C61">
-        <v>-0.05554255037829945</v>
+        <v>0.05591466603385362</v>
       </c>
       <c r="D61">
-        <v>-0.01631884944135078</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>0.05189921917364785</v>
+      </c>
+      <c r="E61">
+        <v>-0.07705310730036134</v>
+      </c>
+      <c r="F61">
+        <v>-0.0005373858153373511</v>
+      </c>
+      <c r="G61">
+        <v>-0.06299239311757553</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2117,180 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>-0.01930846157348069</v>
+        <v>0.0187371582771579</v>
       </c>
       <c r="C63">
-        <v>-0.03427682926765307</v>
+        <v>0.03035273695779009</v>
       </c>
       <c r="D63">
-        <v>0.02247128098781154</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>0.02686919756346621</v>
+      </c>
+      <c r="E63">
+        <v>-0.09091678388556859</v>
+      </c>
+      <c r="F63">
+        <v>0.01792162004793359</v>
+      </c>
+      <c r="G63">
+        <v>-0.02701901570401523</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>-0.05387459991878565</v>
+        <v>0.05891060301372778</v>
       </c>
       <c r="C64">
-        <v>-0.04809011586967139</v>
+        <v>0.05818691616033793</v>
       </c>
       <c r="D64">
-        <v>-0.002924678901219107</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>0.01744620695192108</v>
+      </c>
+      <c r="E64">
+        <v>-0.06010475684551012</v>
+      </c>
+      <c r="F64">
+        <v>-0.0165715867040067</v>
+      </c>
+      <c r="G64">
+        <v>-0.0781112678116197</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>-0.07890007535924547</v>
+        <v>0.06485225020170145</v>
       </c>
       <c r="C65">
-        <v>-0.02560459025013327</v>
+        <v>0.02536597989216308</v>
       </c>
       <c r="D65">
-        <v>-0.04492112970577896</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.09269755947827668</v>
+      </c>
+      <c r="E65">
+        <v>-0.06288600868522211</v>
+      </c>
+      <c r="F65">
+        <v>0.02859068469710008</v>
+      </c>
+      <c r="G65">
+        <v>0.06358086101540936</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>-0.06329333948906918</v>
+        <v>0.05537566347991572</v>
       </c>
       <c r="C66">
-        <v>-0.07776057285613878</v>
+        <v>0.07640813180347653</v>
       </c>
       <c r="D66">
-        <v>-0.03826645638551133</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>0.08768536261754101</v>
+      </c>
+      <c r="E66">
+        <v>-0.09336591589720132</v>
+      </c>
+      <c r="F66">
+        <v>-0.003175757753745849</v>
+      </c>
+      <c r="G66">
+        <v>-0.04893834760638006</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>-0.05069104630062032</v>
+        <v>0.04353762429403051</v>
       </c>
       <c r="C67">
-        <v>-0.03240095515131926</v>
+        <v>0.02895362952800096</v>
       </c>
       <c r="D67">
-        <v>0.02337884890103252</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>0.008268598772641007</v>
+      </c>
+      <c r="E67">
+        <v>-0.04549936623712476</v>
+      </c>
+      <c r="F67">
+        <v>0.003263374146970213</v>
+      </c>
+      <c r="G67">
+        <v>-0.006845804783228659</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>-0.1219776884698792</v>
+        <v>0.1463796958437125</v>
       </c>
       <c r="C68">
-        <v>0.2817518550792909</v>
+        <v>-0.244083866899598</v>
       </c>
       <c r="D68">
-        <v>0.01334321075228804</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.009675173230797805</v>
+      </c>
+      <c r="E68">
+        <v>-0.05355475659332472</v>
+      </c>
+      <c r="F68">
+        <v>0.01361534657005102</v>
+      </c>
+      <c r="G68">
+        <v>0.01243824304883935</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>-0.09384294942847915</v>
+        <v>0.09025064641665546</v>
       </c>
       <c r="C69">
-        <v>-0.07220510404018819</v>
+        <v>0.08903069725825422</v>
       </c>
       <c r="D69">
-        <v>0.0454879385937754</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.002990716584764432</v>
+      </c>
+      <c r="E69">
+        <v>-0.07708445761855864</v>
+      </c>
+      <c r="F69">
+        <v>-0.00862271643831621</v>
+      </c>
+      <c r="G69">
+        <v>-0.07899885155678193</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,360 +2301,594 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>-0.1128889092687783</v>
+        <v>0.1415957314951822</v>
       </c>
       <c r="C71">
-        <v>0.2599276062758155</v>
+        <v>-0.2455746899695891</v>
       </c>
       <c r="D71">
-        <v>-0.002050668201610564</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.008340954308845282</v>
+      </c>
+      <c r="E71">
+        <v>-0.07312398376392826</v>
+      </c>
+      <c r="F71">
+        <v>0.03126396434090876</v>
+      </c>
+      <c r="G71">
+        <v>-0.03684208167341688</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>-0.1013893201904122</v>
+        <v>0.1062861254341899</v>
       </c>
       <c r="C72">
-        <v>-0.04409349511316735</v>
+        <v>0.04804661540951961</v>
       </c>
       <c r="D72">
-        <v>-0.0123027589259928</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.05210748141628718</v>
+      </c>
+      <c r="E72">
+        <v>-0.05170275139910274</v>
+      </c>
+      <c r="F72">
+        <v>0.02976337034716996</v>
+      </c>
+      <c r="G72">
+        <v>-0.05656175347313202</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>-0.3796786910405037</v>
+        <v>0.3228644296402294</v>
       </c>
       <c r="C73">
-        <v>-0.04825912511443009</v>
+        <v>0.06760155034572826</v>
       </c>
       <c r="D73">
-        <v>-0.5955032176606013</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>0.5033315324918971</v>
+      </c>
+      <c r="E73">
+        <v>0.5008059602561148</v>
+      </c>
+      <c r="F73">
+        <v>0.1819666068481357</v>
+      </c>
+      <c r="G73">
+        <v>0.01575832167183192</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>-0.1076557451682816</v>
+        <v>0.1114095713177131</v>
       </c>
       <c r="C74">
-        <v>-0.09388126930753227</v>
+        <v>0.09158384338890077</v>
       </c>
       <c r="D74">
-        <v>0.05538946212417662</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.04562115349925763</v>
+      </c>
+      <c r="E74">
+        <v>-0.06551304905606507</v>
+      </c>
+      <c r="F74">
+        <v>0.03785440105657278</v>
+      </c>
+      <c r="G74">
+        <v>-0.02486718427725293</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>-0.2566998820407296</v>
+        <v>0.2594264378132538</v>
       </c>
       <c r="C75">
-        <v>-0.08682650946934005</v>
+        <v>0.120538931329745</v>
       </c>
       <c r="D75">
-        <v>0.1593815424186081</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.1614724262031914</v>
+      </c>
+      <c r="E75">
+        <v>0.001405156598335071</v>
+      </c>
+      <c r="F75">
+        <v>0.01034953463660153</v>
+      </c>
+      <c r="G75">
+        <v>0.02306641316004015</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>-0.1187296257088783</v>
+        <v>0.1306084796490433</v>
       </c>
       <c r="C76">
-        <v>-0.08087483210839633</v>
+        <v>0.08979563308829586</v>
       </c>
       <c r="D76">
-        <v>0.09218489635538386</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>-0.07777566052237346</v>
+      </c>
+      <c r="E76">
+        <v>-0.08773429775589033</v>
+      </c>
+      <c r="F76">
+        <v>0.00786328004353489</v>
+      </c>
+      <c r="G76">
+        <v>-0.02924203846358494</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>-0.08361133537053947</v>
+        <v>0.06973977083819133</v>
       </c>
       <c r="C77">
-        <v>-0.03622105950636006</v>
+        <v>0.05500956946344995</v>
       </c>
       <c r="D77">
-        <v>-0.04546876725200693</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>0.07320199771540298</v>
+      </c>
+      <c r="E77">
+        <v>-0.1210791036985639</v>
+      </c>
+      <c r="F77">
+        <v>-0.2050483681838821</v>
+      </c>
+      <c r="G77">
+        <v>0.1144796501815227</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>-0.04976803988757613</v>
+        <v>0.04963784477496751</v>
       </c>
       <c r="C78">
-        <v>-0.04009056408487113</v>
+        <v>0.05077384769959561</v>
       </c>
       <c r="D78">
-        <v>-0.04131593180997697</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>0.08005239389656599</v>
+      </c>
+      <c r="E78">
+        <v>-0.08418329505397865</v>
+      </c>
+      <c r="F78">
+        <v>-0.005323018468703599</v>
+      </c>
+      <c r="G78">
+        <v>-0.04726042854948742</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B79">
-        <v>0.001111907011785462</v>
+        <v>0.03552868250462062</v>
       </c>
       <c r="C79">
-        <v>-0.001296603052472188</v>
+        <v>0.0496060801396156</v>
       </c>
       <c r="D79">
-        <v>-0.004018817258299481</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.09077422996258699</v>
+      </c>
+      <c r="E79">
+        <v>-0.07075188299680853</v>
+      </c>
+      <c r="F79">
+        <v>0.03687394490267947</v>
+      </c>
+      <c r="G79">
+        <v>-0.1128411147488691</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>-0.03950719772568186</v>
+        <v>0.03075945186280911</v>
       </c>
       <c r="C80">
-        <v>-0.04780727095515372</v>
+        <v>0.0497012871813327</v>
       </c>
       <c r="D80">
-        <v>-0.03320370536221558</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>0.04395402052470653</v>
+      </c>
+      <c r="E80">
+        <v>-0.02489836774881493</v>
+      </c>
+      <c r="F80">
+        <v>-0.04301679872410274</v>
+      </c>
+      <c r="G80">
+        <v>-0.003574802012681147</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>-0.1464013785088468</v>
+        <v>0.1435799905234215</v>
       </c>
       <c r="C81">
-        <v>-0.06957016070244135</v>
+        <v>0.08836297783522373</v>
       </c>
       <c r="D81">
-        <v>0.137034139166707</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.1272758217930187</v>
+      </c>
+      <c r="E81">
+        <v>-0.05183464072266467</v>
+      </c>
+      <c r="F81">
+        <v>0.01020069380724629</v>
+      </c>
+      <c r="G81">
+        <v>-0.004152249193210797</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>-0.209393526273611</v>
+        <v>0.2352102022890591</v>
       </c>
       <c r="C82">
-        <v>-0.09099079335290419</v>
+        <v>0.1561068712128928</v>
       </c>
       <c r="D82">
-        <v>0.1781157110675399</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.2461218302291076</v>
+      </c>
+      <c r="E82">
+        <v>0.04644023560777954</v>
+      </c>
+      <c r="F82">
+        <v>-0.04052495707023024</v>
+      </c>
+      <c r="G82">
+        <v>-0.3859572929471561</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>-0.04394473342874559</v>
+        <v>0.0300471365536684</v>
       </c>
       <c r="C83">
-        <v>-0.03451768405055797</v>
+        <v>0.04661818295636895</v>
       </c>
       <c r="D83">
-        <v>-0.04342677391744788</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>0.03601076948861325</v>
+      </c>
+      <c r="E83">
+        <v>-0.02978504170196446</v>
+      </c>
+      <c r="F83">
+        <v>-0.02523890215929668</v>
+      </c>
+      <c r="G83">
+        <v>0.007019779522529518</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B84">
-        <v>0</v>
+        <v>-0.0003595821402261206</v>
       </c>
       <c r="C84">
-        <v>0</v>
+        <v>0.001603968158433623</v>
       </c>
       <c r="D84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>0.000801736373568643</v>
+      </c>
+      <c r="E84">
+        <v>-0.00647021139262359</v>
+      </c>
+      <c r="F84">
+        <v>0.001691708487729985</v>
+      </c>
+      <c r="G84">
+        <v>0.004930302193569874</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>-0.2180653631874607</v>
+        <v>0.2023322216581137</v>
       </c>
       <c r="C85">
-        <v>-0.100782800263807</v>
+        <v>0.1135510227596046</v>
       </c>
       <c r="D85">
-        <v>0.1707650515972915</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.1396707384135006</v>
+      </c>
+      <c r="E85">
+        <v>0.02633955438578484</v>
+      </c>
+      <c r="F85">
+        <v>0.08035638546796432</v>
+      </c>
+      <c r="G85">
+        <v>0.01495268641523089</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>-0.01194585641293649</v>
+        <v>0.01547712496857489</v>
       </c>
       <c r="C86">
-        <v>-0.03021776779559197</v>
+        <v>0.01646525888210678</v>
       </c>
       <c r="D86">
-        <v>-0.03508224917094598</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>0.07780167557575821</v>
+      </c>
+      <c r="E86">
+        <v>-0.1035846858966533</v>
+      </c>
+      <c r="F86">
+        <v>-0.02003019446103212</v>
+      </c>
+      <c r="G86">
+        <v>-0.06724534249800262</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>-0.03280284911554918</v>
+        <v>0.03280741943777346</v>
       </c>
       <c r="C87">
-        <v>-0.0004530549079891868</v>
+        <v>0.01190060710299413</v>
       </c>
       <c r="D87">
-        <v>-0.04743417728813846</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>0.09294235008268641</v>
+      </c>
+      <c r="E87">
+        <v>-0.1433212468979451</v>
+      </c>
+      <c r="F87">
+        <v>-0.05113774205866481</v>
+      </c>
+      <c r="G87">
+        <v>0.02812660617094857</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>-0.1120138033786455</v>
+        <v>0.0945533380374534</v>
       </c>
       <c r="C88">
-        <v>-0.08271801044605631</v>
+        <v>0.06778618934580981</v>
       </c>
       <c r="D88">
-        <v>0.02118678239472156</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>0.01506454922887474</v>
+      </c>
+      <c r="E88">
+        <v>-0.05627887036730322</v>
+      </c>
+      <c r="F88">
+        <v>-0.01757073954998916</v>
+      </c>
+      <c r="G88">
+        <v>-0.04131113179570708</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>-0.1738448510403833</v>
+        <v>0.211630084622979</v>
       </c>
       <c r="C89">
-        <v>0.3827952819350324</v>
+        <v>-0.3846942959431618</v>
       </c>
       <c r="D89">
-        <v>0.04019168522497727</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-0.01305561683671947</v>
+      </c>
+      <c r="E89">
+        <v>-0.08274859348391682</v>
+      </c>
+      <c r="F89">
+        <v>-0.07123467930176815</v>
+      </c>
+      <c r="G89">
+        <v>-0.02115249078595878</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>-0.1671368620901161</v>
+        <v>0.1927615680364757</v>
       </c>
       <c r="C90">
-        <v>0.3344917341382771</v>
+        <v>-0.3122163655722284</v>
       </c>
       <c r="D90">
-        <v>0.04811721766598228</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.01441784552567041</v>
+      </c>
+      <c r="E90">
+        <v>-0.06497252881469499</v>
+      </c>
+      <c r="F90">
+        <v>-0.004942273236185022</v>
+      </c>
+      <c r="G90">
+        <v>0.003792078760550758</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>-0.1915996142092972</v>
+        <v>0.1880066402809986</v>
       </c>
       <c r="C91">
-        <v>-0.1204969155663065</v>
+        <v>0.1397231068419495</v>
       </c>
       <c r="D91">
-        <v>0.1436183978857832</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>-0.1318183878153787</v>
+      </c>
+      <c r="E91">
+        <v>-0.04587126791766095</v>
+      </c>
+      <c r="F91">
+        <v>0.004273233731336188</v>
+      </c>
+      <c r="G91">
+        <v>-0.005686548499258219</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>-0.1601590712868968</v>
+        <v>0.1786439262093855</v>
       </c>
       <c r="C92">
-        <v>0.2962554087826904</v>
+        <v>-0.2991582285434924</v>
       </c>
       <c r="D92">
-        <v>0.03542169304753404</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.01251871710228153</v>
+      </c>
+      <c r="E92">
+        <v>-0.07095115011275664</v>
+      </c>
+      <c r="F92">
+        <v>-0.03388430710580016</v>
+      </c>
+      <c r="G92">
+        <v>-0.04526508314615914</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>-0.1866036156894242</v>
+        <v>0.2114139471845915</v>
       </c>
       <c r="C93">
-        <v>0.3384468526047294</v>
+        <v>-0.3215374081534255</v>
       </c>
       <c r="D93">
-        <v>0.06337357455809035</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>-0.02363309510325206</v>
+      </c>
+      <c r="E93">
+        <v>-0.03961943043579592</v>
+      </c>
+      <c r="F93">
+        <v>0.02310671852281233</v>
+      </c>
+      <c r="G93">
+        <v>-0.04203023109896758</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>-0.3568936051680637</v>
+        <v>0.3504440712815506</v>
       </c>
       <c r="C94">
-        <v>-0.1243733392118041</v>
+        <v>0.1731057387111636</v>
       </c>
       <c r="D94">
-        <v>0.4528317920037458</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.4310311058099953</v>
+      </c>
+      <c r="E94">
+        <v>0.1095727940434521</v>
+      </c>
+      <c r="F94">
+        <v>-0.09509555044832597</v>
+      </c>
+      <c r="G94">
+        <v>0.5366461318230802</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>-0.118995366221177</v>
+        <v>0.08899225405712818</v>
       </c>
       <c r="C95">
-        <v>-0.03537728088007215</v>
+        <v>0.04989268152221052</v>
       </c>
       <c r="D95">
-        <v>-0.2827475551474161</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>0.2204910511621649</v>
+      </c>
+      <c r="E95">
+        <v>0.07929663580900183</v>
+      </c>
+      <c r="F95">
+        <v>-0.9009770429595915</v>
+      </c>
+      <c r="G95">
+        <v>0.05599988065299022</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,10 +2899,19 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2049,24 +2922,42 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>-0.1882230008257666</v>
+        <v>0.1848065158432996</v>
       </c>
       <c r="C98">
-        <v>-0.02427228577017564</v>
+        <v>0.04571819957536637</v>
       </c>
       <c r="D98">
-        <v>-0.2160772510530951</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>0.2063194986364528</v>
+      </c>
+      <c r="E98">
+        <v>0.1463363429245814</v>
+      </c>
+      <c r="F98">
+        <v>0.1117900330906835</v>
+      </c>
+      <c r="G98">
+        <v>-0.04020225469887391</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +2968,19 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +2991,65 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>-0.009796798987496191</v>
+        <v>0.007778087566637896</v>
       </c>
       <c r="C101">
-        <v>-0.03134790483234261</v>
+        <v>0.02746041092598364</v>
       </c>
       <c r="D101">
-        <v>0.009241571225087349</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>0.03150874363975657</v>
+      </c>
+      <c r="E101">
+        <v>-0.08760836434708776</v>
+      </c>
+      <c r="F101">
+        <v>-0.006263842585895642</v>
+      </c>
+      <c r="G101">
+        <v>-0.05489855836637862</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>-0.1225124643105411</v>
+        <v>0.1258230188912741</v>
       </c>
       <c r="C102">
-        <v>-0.06369015745568068</v>
+        <v>0.09736409749278978</v>
       </c>
       <c r="D102">
-        <v>0.05060571129039511</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>-0.05887884751854491</v>
+      </c>
+      <c r="E102">
+        <v>0.00905525170005707</v>
+      </c>
+      <c r="F102">
+        <v>-0.02742270258222983</v>
+      </c>
+      <c r="G102">
+        <v>-0.04376584651626808</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3060,19 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3081,15 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
         <v>0</v>
       </c>
     </row>
